--- a/[Work]/回旋镖项目版本测试调查问卷-总结.xlsx
+++ b/[Work]/回旋镖项目版本测试调查问卷-总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\[Work]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E5C3C4-4B82-4602-8FC3-603B5209D175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4580A1B4-328D-4CCC-94C1-FC9E5FB2746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2145" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="源数据1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="424">
   <si>
     <t>提交时间</t>
   </si>
@@ -1385,11 +1385,6 @@
     <t>分裂标，为什么捡多次的意义，有点微妙。</t>
   </si>
   <si>
-    <t>地图边缘死亡，死亡前的将要死亡提示不明显。搞不清到底多久是安全的。（箭头闪烁及不明显，对时间感也不清楚）
-第2个人物的技能，感觉太废了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单局游戏的回合数量太多了，打满了可能需要9回合，还不能退出，时间有点长，需要时间很充裕的人才会沉浸其中。而且有些分割感，每个回合之间感觉像是两局游戏，作为同局游戏的不同回合感觉间隔时间有些长。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1512,6 +1507,14 @@
   <si>
     <t>比赛节奏对比</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">地图边缘死亡，死亡前的将要死亡提示不明显。搞不清到底多久是安全的。（箭头闪烁及不明显，对时间感也不清楚）
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2个人物的技能，感觉太废了。</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1522,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1698,7 +1701,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -5575,7 +5578,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>总结2!$C$327:$D$327</c:f>
+              <c:f>总结2!$C$328:$D$328</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="2"/>
@@ -5915,7 +5918,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>总结2!$C$307:$D$307</c:f>
+              <c:f>总结2!$C$308:$D$308</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="2"/>
@@ -6255,7 +6258,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>总结2!$C$347:$D$347</c:f>
+              <c:f>总结2!$C$348:$D$348</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="2"/>
@@ -21255,13 +21258,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>338</xdr:row>
+      <xdr:row>339</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21291,13 +21294,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21327,13 +21330,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>342</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -25083,10 +25086,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DE4CE9-DAB7-44CE-A0CE-8847216E11F4}">
-  <dimension ref="A1:P367"/>
+  <dimension ref="A1:P368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D367" sqref="D367"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25673,7 +25676,7 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
@@ -25693,7 +25696,7 @@
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
@@ -25708,7 +25711,7 @@
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
@@ -25718,22 +25721,22 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
@@ -25748,180 +25751,171 @@
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="10" t="s">
-        <v>414</v>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>387</v>
+      <c r="A280" s="10" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" s="11" t="s">
-        <v>389</v>
+      <c r="A281" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>394</v>
+      <c r="A282" s="11" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" s="10" t="s">
-        <v>415</v>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>381</v>
+      <c r="A289" s="10" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="12" t="s">
-        <v>391</v>
+      <c r="A290" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>400</v>
+      <c r="A291" s="12" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="10" t="s">
-        <v>416</v>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>393</v>
+      <c r="A297" s="10" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A300" s="18" t="s">
-        <v>418</v>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>402</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>420</v>
+    <row r="301" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A301" s="18" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B302" s="17">
-        <v>1</v>
-      </c>
-      <c r="C302" s="17">
-        <v>0</v>
-      </c>
-      <c r="D302" s="17">
-        <v>2</v>
+      <c r="A302" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B303" s="17">
+        <v>1</v>
+      </c>
+      <c r="C303" s="17">
+        <v>0</v>
+      </c>
+      <c r="D303" s="17">
         <v>2</v>
-      </c>
-      <c r="C303" s="17">
-        <v>2</v>
-      </c>
-      <c r="D303" s="17">
-        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B304" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C304" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D304" s="17">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B305" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C305" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D305" s="17">
         <v>7</v>
@@ -25929,280 +25923,294 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B306" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C306" s="17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D306" s="17">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C307" s="16">
-        <f>SUMPRODUCT($B$302:$B$306,C302:C306)/SUM(C302:C306)</f>
+      <c r="A307" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B307" s="17">
+        <v>5</v>
+      </c>
+      <c r="C307" s="17">
+        <v>0</v>
+      </c>
+      <c r="D307" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C308" s="16">
+        <f>SUMPRODUCT($B$303:$B$307,C303:C307)/SUM(C303:C307)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D307" s="16">
-        <f>SUMPRODUCT($B$302:$B$306,D302:D306)/SUM(D302:D306)</f>
+      <c r="D308" s="16">
+        <f>SUMPRODUCT($B$303:$B$307,D303:D307)/SUM(D303:D307)</f>
         <v>3.2222222222222223</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="10" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B322" s="17">
-        <v>1</v>
-      </c>
-      <c r="C322" s="17">
-        <v>2</v>
-      </c>
-      <c r="D322" s="17">
-        <v>6</v>
+      <c r="A322" s="10" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="17">
+      <c r="A323" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B323" s="17">
+        <v>1</v>
+      </c>
+      <c r="C323" s="17">
         <v>2</v>
       </c>
-      <c r="B323" s="17">
-        <v>2</v>
-      </c>
-      <c r="C323" s="17">
-        <v>3</v>
-      </c>
       <c r="D323" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="17" t="s">
-        <v>153</v>
+      <c r="A324" s="17">
+        <v>2</v>
       </c>
       <c r="B324" s="17">
+        <v>2</v>
+      </c>
+      <c r="C324" s="17">
         <v>3</v>
       </c>
-      <c r="C324" s="17">
-        <v>11</v>
-      </c>
       <c r="D324" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="17">
-        <v>4</v>
+      <c r="A325" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="B325" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C325" s="17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D325" s="17">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="17" t="s">
-        <v>154</v>
+      <c r="A326" s="17">
+        <v>4</v>
       </c>
       <c r="B326" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C326" s="17">
+        <v>6</v>
+      </c>
+      <c r="D326" s="17">
         <v>0</v>
-      </c>
-      <c r="D326" s="17">
-        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C327" s="16">
-        <f>SUMPRODUCT($B$322:$B$326,C322:C326)/SUM(C322:C326)</f>
+      <c r="A327" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B327" s="17">
+        <v>5</v>
+      </c>
+      <c r="C327" s="17">
+        <v>0</v>
+      </c>
+      <c r="D327" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C328" s="16">
+        <f>SUMPRODUCT($B$323:$B$327,C323:C327)/SUM(C323:C327)</f>
         <v>2.9545454545454546</v>
       </c>
-      <c r="D327" s="16">
-        <f>SUMPRODUCT($B$322:$B$326,D322:D326)/SUM(D322:D326)</f>
+      <c r="D328" s="16">
+        <f>SUMPRODUCT($B$323:$B$327,D323:D327)/SUM(D323:D327)</f>
         <v>2.6111111111111112</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="10" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B342" s="17">
-        <v>1</v>
-      </c>
-      <c r="C342" s="17">
-        <v>1</v>
-      </c>
-      <c r="D342" s="17">
-        <v>1</v>
+      <c r="A342" s="10" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B343" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C343" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D343" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="17" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="B344" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C344" s="17">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D344" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B345" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C345" s="17">
+        <v>11</v>
+      </c>
+      <c r="D345" s="17">
         <v>5</v>
-      </c>
-      <c r="D345" s="17">
-        <v>6</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="17" t="s">
-        <v>356</v>
+        <v>33</v>
       </c>
       <c r="B346" s="17">
+        <v>4</v>
+      </c>
+      <c r="C346" s="17">
         <v>5</v>
       </c>
-      <c r="C346" s="17">
-        <v>0</v>
-      </c>
       <c r="D346" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C347" s="16">
-        <f>SUMPRODUCT($B$342:$B$346,C342:C346)/SUM(C342:C346)</f>
+      <c r="A347" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="B347" s="17">
+        <v>5</v>
+      </c>
+      <c r="C347" s="17">
+        <v>0</v>
+      </c>
+      <c r="D347" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C348" s="16">
+        <f>SUMPRODUCT($B$343:$B$347,C343:C347)/SUM(C343:C347)</f>
         <v>2.9523809523809526</v>
       </c>
-      <c r="D347" s="16">
-        <f>SUMPRODUCT($B$342:$B$346,D342:D346)/SUM(D342:D346)</f>
+      <c r="D348" s="16">
+        <f>SUMPRODUCT($B$343:$B$347,D343:D347)/SUM(D343:D347)</f>
         <v>3.2222222222222223</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="10" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>358</v>
-      </c>
-      <c r="B362">
-        <v>1</v>
-      </c>
-      <c r="C362">
-        <v>0</v>
-      </c>
-      <c r="D362">
-        <v>6</v>
+      <c r="A362" s="10" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363">
-        <v>2</v>
+      <c r="A363" t="s">
+        <v>358</v>
       </c>
       <c r="B363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C363">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D363">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>353</v>
+      <c r="A364">
+        <v>2</v>
       </c>
       <c r="B364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C364">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D364">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365">
-        <v>4</v>
+      <c r="A365" t="s">
+        <v>353</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D365">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>359</v>
+      <c r="A366">
+        <v>4</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C366">
         <v>1</v>
       </c>
       <c r="D366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C367" s="16">
-        <f>SUMPRODUCT($B$362:$B$366,C362:C366)/SUM(C362:C366)</f>
+      <c r="A367" t="s">
+        <v>359</v>
+      </c>
+      <c r="B367">
+        <v>5</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C368" s="16">
+        <f>SUMPRODUCT($B$363:$B$367,C363:C367)/SUM(C363:C367)</f>
         <v>2.9545454545454546</v>
       </c>
-      <c r="D367" s="16">
-        <f>SUMPRODUCT($B$362:$B$366,D362:D366)/SUM(D362:D366)</f>
+      <c r="D368" s="16">
+        <f>SUMPRODUCT($B$363:$B$367,D363:D367)/SUM(D363:D367)</f>
         <v>2.5555555555555554</v>
       </c>
     </row>
